--- a/data/0. old data/0. raw/2016/companies/lundbeck.xlsx
+++ b/data/0. old data/0. raw/2016/companies/lundbeck.xlsx
@@ -964,9 +964,6 @@
     <t xml:space="preserve">Abele, Sabine </t>
   </si>
   <si>
-    <t>St,-Leodegar-Strasse 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poyraz, Sehal </t>
   </si>
   <si>
@@ -1802,6 +1799,9 @@
   </si>
   <si>
     <t>Uniklinik und Poliklinik Universitäre Psych, Dienste Bern (UPD) Murtenstrasse 21</t>
+  </si>
+  <si>
+    <t>St. Leodegar-Strasse 2</t>
   </si>
 </sst>
 </file>
@@ -2313,8 +2313,8 @@
   <dimension ref="A1:AMK508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B187" sqref="B187"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4916,7 +4916,7 @@
         <v>220</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>15</v>
@@ -5370,13 +5370,13 @@
         <v>257</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="8"/>
@@ -6122,7 +6122,7 @@
         <v>15</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>313</v>
+        <v>592</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="8"/>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>19</v>
@@ -6155,7 +6155,7 @@
         <v>15</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="8"/>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>22</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>173</v>
@@ -6221,7 +6221,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="8"/>
@@ -6245,16 +6245,16 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="8"/>
@@ -6278,16 +6278,16 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="C125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="8"/>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>19</v>
@@ -6316,7 +6316,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="8"/>
@@ -6336,16 +6336,16 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="C127" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="8"/>
@@ -6369,16 +6369,16 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="C128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="8"/>
@@ -6398,16 +6398,16 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="8"/>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>39</v>
@@ -6436,7 +6436,7 @@
         <v>15</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="8"/>
@@ -6460,16 +6460,16 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="C131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="8"/>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>39</v>
@@ -6502,7 +6502,7 @@
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="8"/>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>59</v>
@@ -6535,7 +6535,7 @@
         <v>15</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="8"/>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>110</v>
@@ -6568,7 +6568,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="8"/>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>19</v>
@@ -6597,7 +6597,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="8"/>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>142</v>
@@ -6626,7 +6626,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="8"/>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>142</v>
@@ -6655,7 +6655,7 @@
         <v>15</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="8"/>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>36</v>
@@ -6704,16 +6704,16 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="8"/>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>36</v>
@@ -6762,16 +6762,16 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="C141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="8"/>
@@ -6795,16 +6795,16 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="8"/>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>188</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>238</v>
@@ -6870,7 +6870,7 @@
         <v>15</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="8"/>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>293</v>
@@ -6903,7 +6903,7 @@
         <v>15</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="8"/>
@@ -6918,12 +6918,12 @@
         <v>550</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>36</v>
@@ -6952,16 +6952,16 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="C147" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="8"/>
@@ -6976,21 +6976,21 @@
         <v>1000</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="C148" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="8"/>
@@ -7005,21 +7005,21 @@
         <v>3369</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="C149" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="8"/>
@@ -7034,21 +7034,21 @@
         <v>2160</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="C150" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="8"/>
@@ -7063,21 +7063,21 @@
         <v>1200</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="C151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="8"/>
@@ -7092,21 +7092,21 @@
         <v>5000</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="C152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="8"/>
@@ -7121,12 +7121,12 @@
         <v>1000</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>245</v>
@@ -7135,7 +7135,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="8"/>
@@ -7150,12 +7150,12 @@
         <v>1000</v>
       </c>
       <c r="M153" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>80</v>
@@ -7164,7 +7164,7 @@
         <v>15</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="8"/>
@@ -7179,12 +7179,12 @@
         <v>1000</v>
       </c>
       <c r="M154" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>59</v>
@@ -7208,21 +7208,21 @@
         <v>1500</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="C156" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="8"/>
@@ -7237,21 +7237,21 @@
         <v>800</v>
       </c>
       <c r="M156" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="C157" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="8"/>
@@ -7266,12 +7266,12 @@
         <v>1250</v>
       </c>
       <c r="M157" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>282</v>
@@ -7280,7 +7280,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="8"/>
@@ -7295,12 +7295,12 @@
         <v>2500</v>
       </c>
       <c r="M158" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>142</v>
@@ -7309,7 +7309,7 @@
         <v>15</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="8"/>
@@ -7324,21 +7324,21 @@
         <v>6480</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="C160" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="8"/>
@@ -7353,12 +7353,12 @@
         <v>1500</v>
       </c>
       <c r="M160" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>110</v>
@@ -7367,7 +7367,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="8"/>
@@ -7386,21 +7386,21 @@
         <v>19504</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="C162" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="8"/>
@@ -7415,21 +7415,21 @@
         <v>700</v>
       </c>
       <c r="M162" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="C163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="8"/>
@@ -7444,12 +7444,12 @@
         <v>1000</v>
       </c>
       <c r="M163" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>59</v>
@@ -7458,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="8"/>
@@ -7473,12 +7473,12 @@
         <v>1000</v>
       </c>
       <c r="M164" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>235</v>
@@ -7487,7 +7487,7 @@
         <v>15</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="8"/>
@@ -7502,21 +7502,21 @@
         <v>800</v>
       </c>
       <c r="M165" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="C166" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="8"/>
@@ -7531,21 +7531,21 @@
         <v>3000</v>
       </c>
       <c r="M166" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="C167" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="8"/>
@@ -7560,12 +7560,12 @@
         <v>3000</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>273</v>
@@ -7574,7 +7574,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="8"/>
@@ -7589,21 +7589,21 @@
         <v>2160</v>
       </c>
       <c r="M168" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="C169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="8"/>
@@ -7618,12 +7618,12 @@
         <v>2500</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>145</v>
@@ -7632,7 +7632,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="8"/>
@@ -7647,21 +7647,21 @@
         <v>6480</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="C171" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="8"/>
@@ -7676,21 +7676,21 @@
         <v>16200</v>
       </c>
       <c r="M171" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="C172" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="8"/>
@@ -7705,21 +7705,21 @@
         <v>1000</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="C173" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="8"/>
@@ -7734,12 +7734,12 @@
         <v>37368</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>173</v>
@@ -7748,7 +7748,7 @@
         <v>15</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="8"/>
@@ -7763,12 +7763,12 @@
         <v>1500</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>110</v>
@@ -7790,21 +7790,21 @@
         <v>2500</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="C176" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="8"/>
@@ -7819,12 +7819,12 @@
         <v>3300</v>
       </c>
       <c r="M176" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>36</v>
@@ -7833,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="8"/>
@@ -7848,12 +7848,12 @@
         <v>4320</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>293</v>
@@ -7862,7 +7862,7 @@
         <v>15</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="8"/>
@@ -7883,12 +7883,12 @@
         <v>2564</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>80</v>
@@ -7897,7 +7897,7 @@
         <v>15</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="8"/>
@@ -7918,12 +7918,12 @@
         <v>3364</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>80</v>
@@ -7932,7 +7932,7 @@
         <v>15</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="8"/>
@@ -7947,21 +7947,21 @@
         <v>4580</v>
       </c>
       <c r="M180" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="C181" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="8"/>
@@ -7976,12 +7976,12 @@
         <v>1080</v>
       </c>
       <c r="M181" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>36</v>
@@ -7990,7 +7990,7 @@
         <v>15</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="8"/>
@@ -8005,12 +8005,12 @@
         <v>4698</v>
       </c>
       <c r="M182" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>33</v>
@@ -8019,7 +8019,7 @@
         <v>15</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="8"/>
@@ -8034,12 +8034,12 @@
         <v>2000</v>
       </c>
       <c r="M183" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>151</v>
@@ -8063,12 +8063,12 @@
         <v>3400</v>
       </c>
       <c r="M184" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>110</v>
@@ -8090,21 +8090,21 @@
         <v>3000</v>
       </c>
       <c r="M185" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="C186" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="8"/>
@@ -8119,21 +8119,21 @@
         <v>1080</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B187" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="8"/>
@@ -8148,12 +8148,12 @@
         <v>1000</v>
       </c>
       <c r="M187" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>39</v>
@@ -8162,7 +8162,7 @@
         <v>15</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="8"/>
@@ -8177,12 +8177,12 @@
         <v>4320</v>
       </c>
       <c r="M188" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>173</v>
@@ -8191,7 +8191,7 @@
         <v>15</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="8"/>
@@ -8206,12 +8206,12 @@
         <v>1620</v>
       </c>
       <c r="M189" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>33</v>
@@ -8220,7 +8220,7 @@
         <v>15</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="8"/>
@@ -8235,12 +8235,12 @@
         <v>540</v>
       </c>
       <c r="M190" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>36</v>
@@ -8249,7 +8249,7 @@
         <v>15</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="8"/>
@@ -8264,21 +8264,21 @@
         <v>2500</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="C192" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="8"/>
@@ -8293,12 +8293,12 @@
         <v>800</v>
       </c>
       <c r="M192" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>19</v>
@@ -8307,7 +8307,7 @@
         <v>15</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="8"/>
@@ -8322,21 +8322,21 @@
         <v>1500</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="C194" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="8"/>
@@ -8351,12 +8351,12 @@
         <v>6500</v>
       </c>
       <c r="M194" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>90</v>
@@ -8365,7 +8365,7 @@
         <v>15</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="8"/>
@@ -8380,21 +8380,21 @@
         <v>8500</v>
       </c>
       <c r="M195" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B196" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="8"/>
@@ -8409,12 +8409,12 @@
         <v>7495</v>
       </c>
       <c r="M196" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>36</v>
@@ -8423,7 +8423,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="8"/>
@@ -8438,21 +8438,21 @@
         <v>2000</v>
       </c>
       <c r="M197" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B198" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="C198" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="8"/>
@@ -8467,21 +8467,21 @@
         <v>1600</v>
       </c>
       <c r="M198" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="C199" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="8"/>
@@ -8496,12 +8496,12 @@
         <v>10800</v>
       </c>
       <c r="M199" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>235</v>
@@ -8510,7 +8510,7 @@
         <v>15</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="8"/>
@@ -8525,12 +8525,12 @@
         <v>500</v>
       </c>
       <c r="M200" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>235</v>
@@ -8539,7 +8539,7 @@
         <v>15</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="8"/>
@@ -8554,12 +8554,12 @@
         <v>2000</v>
       </c>
       <c r="M201" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>235</v>
@@ -8568,7 +8568,7 @@
         <v>15</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="8"/>
@@ -8583,21 +8583,21 @@
         <v>1200</v>
       </c>
       <c r="M202" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="C203" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="8"/>
@@ -8612,21 +8612,21 @@
         <v>7500</v>
       </c>
       <c r="M203" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B204" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="C204" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="8"/>
@@ -8641,12 +8641,12 @@
         <v>2000</v>
       </c>
       <c r="M204" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>229</v>
@@ -8670,12 +8670,12 @@
         <v>2700</v>
       </c>
       <c r="M205" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>181</v>
@@ -8699,12 +8699,12 @@
         <v>1500</v>
       </c>
       <c r="M206" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>201</v>
@@ -8713,7 +8713,7 @@
         <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="8"/>
@@ -8728,21 +8728,21 @@
         <v>6000</v>
       </c>
       <c r="M207" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="C208" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="8"/>
@@ -8757,12 +8757,12 @@
         <v>2160</v>
       </c>
       <c r="M208" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>30</v>
@@ -8786,12 +8786,12 @@
         <v>6320</v>
       </c>
       <c r="M209" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>19</v>
@@ -8800,7 +8800,7 @@
         <v>15</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="8"/>
@@ -8815,12 +8815,12 @@
         <v>1500</v>
       </c>
       <c r="M210" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>19</v>
@@ -8829,7 +8829,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="8"/>
@@ -8848,21 +8848,21 @@
         <v>18278</v>
       </c>
       <c r="M211" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B212" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="C212" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="8"/>
@@ -8877,12 +8877,12 @@
         <v>1080</v>
       </c>
       <c r="M212" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>90</v>
@@ -8891,7 +8891,7 @@
         <v>15</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="8"/>
@@ -8906,21 +8906,21 @@
         <v>500</v>
       </c>
       <c r="M213" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="C214" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="8"/>
@@ -8935,12 +8935,12 @@
         <v>9100</v>
       </c>
       <c r="M214" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>167</v>
@@ -8949,7 +8949,7 @@
         <v>15</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="8"/>
@@ -8964,21 +8964,21 @@
         <v>1500</v>
       </c>
       <c r="M215" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B216" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="C216" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="8"/>
@@ -8993,12 +8993,12 @@
         <v>1135</v>
       </c>
       <c r="M216" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>19</v>
@@ -9007,7 +9007,7 @@
         <v>15</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="8"/>
@@ -9022,12 +9022,12 @@
         <v>4000</v>
       </c>
       <c r="M217" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>181</v>
@@ -9036,7 +9036,7 @@
         <v>15</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="8"/>
@@ -9051,12 +9051,12 @@
         <v>1250</v>
       </c>
       <c r="M218" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>19</v>
@@ -9065,7 +9065,7 @@
         <v>15</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="8"/>
@@ -9080,12 +9080,12 @@
         <v>2000</v>
       </c>
       <c r="M219" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>19</v>
@@ -9094,7 +9094,7 @@
         <v>15</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="8"/>
@@ -9109,12 +9109,12 @@
         <v>2000</v>
       </c>
       <c r="M220" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>142</v>
@@ -9123,7 +9123,7 @@
         <v>15</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="8"/>
@@ -9138,12 +9138,12 @@
         <v>2592</v>
       </c>
       <c r="M221" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>45</v>
@@ -9152,7 +9152,7 @@
         <v>15</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E222" s="7"/>
       <c r="F222" s="8"/>
@@ -9167,21 +9167,21 @@
         <v>500</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="C223" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="E223" s="7"/>
       <c r="F223" s="8"/>
@@ -9196,21 +9196,21 @@
         <v>3500</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B224" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B224" s="7" t="s">
-        <v>538</v>
-      </c>
       <c r="C224" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E224" s="7"/>
       <c r="F224" s="8"/>
@@ -9225,12 +9225,12 @@
         <v>1000</v>
       </c>
       <c r="M224" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>19</v>
@@ -9239,7 +9239,7 @@
         <v>15</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E225" s="7"/>
       <c r="F225" s="8"/>
@@ -9254,21 +9254,21 @@
         <v>5000</v>
       </c>
       <c r="M225" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B226" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="8"/>
@@ -9283,21 +9283,21 @@
         <v>40770</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="C227" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="8"/>
@@ -9312,21 +9312,21 @@
         <v>1500</v>
       </c>
       <c r="M227" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="C228" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="8"/>
@@ -9341,12 +9341,12 @@
         <v>1500</v>
       </c>
       <c r="M228" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>45</v>
@@ -9355,7 +9355,7 @@
         <v>15</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="8"/>
@@ -9370,21 +9370,21 @@
         <v>8360</v>
       </c>
       <c r="M229" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="C230" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="E230" s="7"/>
       <c r="F230" s="8"/>
@@ -9399,12 +9399,12 @@
         <v>500</v>
       </c>
       <c r="M230" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>188</v>
@@ -9413,7 +9413,7 @@
         <v>15</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E231" s="7"/>
       <c r="F231" s="8"/>
@@ -9428,12 +9428,12 @@
         <v>15300</v>
       </c>
       <c r="M231" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>36</v>
@@ -9442,7 +9442,7 @@
         <v>15</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="8"/>
@@ -9457,21 +9457,21 @@
         <v>1000</v>
       </c>
       <c r="M232" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B233" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="8"/>
@@ -9486,12 +9486,12 @@
         <v>4500</v>
       </c>
       <c r="M233" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>83</v>
@@ -9500,7 +9500,7 @@
         <v>15</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E234" s="7"/>
       <c r="F234" s="8"/>
@@ -9515,12 +9515,12 @@
         <v>1000</v>
       </c>
       <c r="M234" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>142</v>
@@ -9529,7 +9529,7 @@
         <v>15</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E235" s="7"/>
       <c r="F235" s="8"/>
@@ -9544,12 +9544,12 @@
         <v>800</v>
       </c>
       <c r="M235" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>142</v>
@@ -9558,7 +9558,7 @@
         <v>15</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E236" s="7"/>
       <c r="F236" s="8"/>
@@ -9573,21 +9573,21 @@
         <v>2160</v>
       </c>
       <c r="M236" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B237" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="C237" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E237" s="7"/>
       <c r="F237" s="8"/>
@@ -9602,12 +9602,12 @@
         <v>2500</v>
       </c>
       <c r="M237" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>19</v>
@@ -9616,7 +9616,7 @@
         <v>15</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="8"/>
@@ -9631,12 +9631,12 @@
         <v>22680</v>
       </c>
       <c r="M238" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>80</v>
@@ -9645,7 +9645,7 @@
         <v>15</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E239" s="7"/>
       <c r="F239" s="8"/>
@@ -9662,12 +9662,12 @@
         <v>4600</v>
       </c>
       <c r="M239" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>36</v>
@@ -9691,12 +9691,12 @@
         <v>1500</v>
       </c>
       <c r="M240" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>19</v>
@@ -9705,7 +9705,7 @@
         <v>15</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="8"/>
@@ -9720,21 +9720,21 @@
         <v>1200</v>
       </c>
       <c r="M241" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B242" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="C242" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="E242" s="7"/>
       <c r="F242" s="14">
@@ -9749,12 +9749,12 @@
         <v>10544</v>
       </c>
       <c r="M242" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>19</v>
@@ -9763,7 +9763,7 @@
         <v>15</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E243" s="7"/>
       <c r="F243" s="8"/>
@@ -9778,7 +9778,7 @@
         <v>3500</v>
       </c>
       <c r="M243" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -13197,30 +13197,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>577</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>578</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>581</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B2" s="29">
         <v>2016</v>
@@ -13243,7 +13243,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B3" s="29">
         <v>2016</v>
@@ -13252,7 +13252,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E3" s="29">
         <v>1</v>
@@ -13266,7 +13266,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B4" s="29">
         <v>2016</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B5" s="29">
         <v>2016</v>
@@ -13312,13 +13312,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B6" s="29">
         <v>2016</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>5</v>
@@ -13329,13 +13329,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B7" s="29">
         <v>2016</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>6</v>
@@ -13346,13 +13346,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B8" s="29">
         <v>2016</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>7</v>
@@ -13363,16 +13363,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B9" s="29">
         <v>2016</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E9" s="29">
         <v>0</v>
@@ -13380,13 +13380,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B10" s="29">
         <v>2016</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>9</v>

--- a/data/0. old data/0. raw/2016/companies/lundbeck.xlsx
+++ b/data/0. old data/0. raw/2016/companies/lundbeck.xlsx
@@ -1315,9 +1315,6 @@
     <t>Burgstrasse 99</t>
   </si>
   <si>
-    <t>Geschäftsstelle Kollegium für Hausarztmedizin / Medworld AG</t>
-  </si>
-  <si>
     <t>Steinhausen</t>
   </si>
   <si>
@@ -1802,6 +1799,9 @@
   </si>
   <si>
     <t>St. Leodegar-Strasse 2</t>
+  </si>
+  <si>
+    <t>Geschäftsstelle Kollegium für Hausarztmedizin</t>
   </si>
 </sst>
 </file>
@@ -2313,8 +2313,8 @@
   <dimension ref="A1:AMK508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4916,7 +4916,7 @@
         <v>220</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>15</v>
@@ -5370,13 +5370,13 @@
         <v>257</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="8"/>
@@ -6122,7 +6122,7 @@
         <v>15</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="8"/>
@@ -6316,7 +6316,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="8"/>
@@ -6401,13 +6401,13 @@
         <v>332</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="8"/>
@@ -6597,7 +6597,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="8"/>
@@ -6626,7 +6626,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="8"/>
@@ -6655,7 +6655,7 @@
         <v>15</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="8"/>
@@ -7710,16 +7710,16 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="C173" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="8"/>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>173</v>
@@ -7748,7 +7748,7 @@
         <v>15</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="8"/>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>110</v>
@@ -7795,16 +7795,16 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="C176" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="8"/>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>36</v>
@@ -7833,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="8"/>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>293</v>
@@ -7862,7 +7862,7 @@
         <v>15</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="8"/>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>80</v>
@@ -7897,7 +7897,7 @@
         <v>15</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="8"/>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>80</v>
@@ -7932,7 +7932,7 @@
         <v>15</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="8"/>
@@ -7952,16 +7952,16 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="C181" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="8"/>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>36</v>
@@ -7990,7 +7990,7 @@
         <v>15</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="8"/>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>33</v>
@@ -8019,7 +8019,7 @@
         <v>15</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="8"/>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>151</v>
@@ -8068,7 +8068,7 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>110</v>
@@ -8095,16 +8095,16 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="C186" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="8"/>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>428</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>39</v>
@@ -8162,7 +8162,7 @@
         <v>15</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="8"/>
@@ -8182,7 +8182,7 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>173</v>
@@ -8191,7 +8191,7 @@
         <v>15</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="8"/>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>33</v>
@@ -8220,7 +8220,7 @@
         <v>15</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="8"/>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>36</v>
@@ -8249,7 +8249,7 @@
         <v>15</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="8"/>
@@ -8269,10 +8269,10 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>15</v>
@@ -8298,7 +8298,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>19</v>
@@ -8307,7 +8307,7 @@
         <v>15</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="8"/>
@@ -8327,16 +8327,16 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="C194" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="8"/>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>90</v>
@@ -8365,7 +8365,7 @@
         <v>15</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="8"/>
@@ -8385,16 +8385,16 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B196" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="8"/>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>36</v>
@@ -8423,7 +8423,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="8"/>
@@ -8443,16 +8443,16 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B198" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="C198" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="8"/>
@@ -8472,16 +8472,16 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="C199" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="8"/>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>235</v>
@@ -8510,7 +8510,7 @@
         <v>15</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="8"/>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>235</v>
@@ -8539,7 +8539,7 @@
         <v>15</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="8"/>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>235</v>
@@ -8568,7 +8568,7 @@
         <v>15</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="8"/>
@@ -8588,16 +8588,16 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="C203" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="8"/>
@@ -8617,16 +8617,16 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B204" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="C204" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="8"/>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>229</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>181</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>201</v>
@@ -8713,7 +8713,7 @@
         <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="8"/>
@@ -8733,16 +8733,16 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="C208" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="8"/>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>30</v>
@@ -8800,7 +8800,7 @@
         <v>15</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="8"/>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>19</v>
@@ -8829,7 +8829,7 @@
         <v>15</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="8"/>
@@ -8853,16 +8853,16 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B212" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="C212" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="8"/>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>90</v>
@@ -8891,7 +8891,7 @@
         <v>15</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="8"/>
@@ -8911,16 +8911,16 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="C214" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="8"/>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>167</v>
@@ -8949,7 +8949,7 @@
         <v>15</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="8"/>
@@ -8969,16 +8969,16 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B216" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="C216" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="8"/>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>19</v>
@@ -9007,7 +9007,7 @@
         <v>15</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="8"/>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>181</v>
@@ -9036,7 +9036,7 @@
         <v>15</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="8"/>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>19</v>
@@ -9065,7 +9065,7 @@
         <v>15</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="8"/>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>19</v>
@@ -9094,7 +9094,7 @@
         <v>15</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="8"/>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>142</v>
@@ -9123,7 +9123,7 @@
         <v>15</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="8"/>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>45</v>
@@ -9152,7 +9152,7 @@
         <v>15</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E222" s="7"/>
       <c r="F222" s="8"/>
@@ -9172,16 +9172,16 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="C223" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="E223" s="7"/>
       <c r="F223" s="8"/>
@@ -9201,16 +9201,16 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B224" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B224" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="C224" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E224" s="7"/>
       <c r="F224" s="8"/>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>19</v>
@@ -9239,7 +9239,7 @@
         <v>15</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E225" s="7"/>
       <c r="F225" s="8"/>
@@ -9259,16 +9259,16 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B226" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="8"/>
@@ -9288,16 +9288,16 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="C227" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="8"/>
@@ -9317,16 +9317,16 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="C228" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="8"/>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>45</v>
@@ -9355,7 +9355,7 @@
         <v>15</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="8"/>
@@ -9375,16 +9375,16 @@
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B230" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="C230" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="E230" s="7"/>
       <c r="F230" s="8"/>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>188</v>
@@ -9413,7 +9413,7 @@
         <v>15</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E231" s="7"/>
       <c r="F231" s="8"/>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>36</v>
@@ -9442,7 +9442,7 @@
         <v>15</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="8"/>
@@ -9462,16 +9462,16 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B233" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="8"/>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>83</v>
@@ -9500,7 +9500,7 @@
         <v>15</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E234" s="7"/>
       <c r="F234" s="8"/>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>142</v>
@@ -9529,7 +9529,7 @@
         <v>15</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E235" s="7"/>
       <c r="F235" s="8"/>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>142</v>
@@ -9558,7 +9558,7 @@
         <v>15</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E236" s="7"/>
       <c r="F236" s="8"/>
@@ -9578,16 +9578,16 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B237" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B237" s="7" t="s">
-        <v>564</v>
-      </c>
       <c r="C237" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E237" s="7"/>
       <c r="F237" s="8"/>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>19</v>
@@ -9616,7 +9616,7 @@
         <v>15</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="8"/>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>80</v>
@@ -9645,7 +9645,7 @@
         <v>15</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E239" s="7"/>
       <c r="F239" s="8"/>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>36</v>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>19</v>
@@ -9705,7 +9705,7 @@
         <v>15</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="8"/>
@@ -9725,16 +9725,16 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B242" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="C242" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="E242" s="7"/>
       <c r="F242" s="14">
@@ -9754,7 +9754,7 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>19</v>
@@ -9763,7 +9763,7 @@
         <v>15</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E243" s="7"/>
       <c r="F243" s="8"/>
@@ -13197,30 +13197,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>580</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B2" s="29">
         <v>2016</v>
@@ -13243,7 +13243,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3" s="29">
         <v>2016</v>
@@ -13252,7 +13252,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E3" s="29">
         <v>1</v>
@@ -13266,7 +13266,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4" s="29">
         <v>2016</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B5" s="29">
         <v>2016</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B6" s="29">
         <v>2016</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B7" s="29">
         <v>2016</v>
@@ -13346,7 +13346,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B8" s="29">
         <v>2016</v>
@@ -13363,7 +13363,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B9" s="29">
         <v>2016</v>
@@ -13372,7 +13372,7 @@
         <v>362</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E9" s="29">
         <v>0</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B10" s="29">
         <v>2016</v>
